--- a/5sem/51/tables/al.xlsx
+++ b/5sem/51/tables/al.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -54,6 +54,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -88,9 +91,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -371,7 +375,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -411,7 +415,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D2" s="1">
         <v>159422</v>
@@ -425,7 +429,7 @@
       <c r="G2" s="1">
         <v>20</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>8.98</v>
       </c>
       <c r="I2" s="1">
@@ -440,7 +444,7 @@
         <v>39.700000000000003</v>
       </c>
       <c r="C3" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D3" s="1">
         <v>159510</v>
@@ -454,7 +458,7 @@
       <c r="G3" s="1">
         <v>13</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>8.5739999999999998</v>
       </c>
       <c r="I3" s="1">
@@ -469,7 +473,7 @@
         <v>59.8</v>
       </c>
       <c r="C4" s="1">
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="D4" s="1">
         <v>142914</v>
@@ -483,7 +487,7 @@
       <c r="G4" s="1">
         <v>9</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>8.1739999999999995</v>
       </c>
       <c r="I4" s="1">
@@ -498,7 +502,7 @@
         <v>79.7</v>
       </c>
       <c r="C5" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D5" s="1">
         <v>132888</v>
@@ -512,7 +516,7 @@
       <c r="G5" s="1">
         <v>6</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>7.6920000000000002</v>
       </c>
       <c r="I5" s="1">
@@ -527,7 +531,7 @@
         <v>99.8</v>
       </c>
       <c r="C6" s="1">
-        <v>0.22</v>
+        <v>0.45</v>
       </c>
       <c r="D6" s="1">
         <v>145262</v>
@@ -541,7 +545,7 @@
       <c r="G6" s="1">
         <v>4</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>7.3710000000000004</v>
       </c>
       <c r="I6" s="1">
